--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14895" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:I20"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -58,30 +58,39 @@
     <t>Team</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>North China</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
-    <t xml:space="preserve">  SELECT [LevelHierarchy] as 'Level Hierarchy'
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>ProjectUpdated</t>
+  </si>
+  <si>
+    <t>SELECT [LevelHierarchy] as 'Level Hierarchy'
    ,[TeamName] as Name
-      ,[DisplayName] as 'Display heirarchy'
+      ,[DisplayName] as 'Display Hierarchy'
    ,[LAST_CHANGED_BY] as 'Last Changed By'
-      ,[LAST_CHANGED_ON] as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[AGT_Teams] order by [Level Hierarchy]</t>
+      ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[AGT_Teams] order by [TeamID];</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Australiaupdated</t>
+  </si>
+  <si>
+    <t>Modified</t>
   </si>
 </sst>
 </file>
@@ -414,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,16 +457,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,16 +493,23 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +533,7 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -528,18 +544,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -547,10 +573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,12 +599,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -589,10 +626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +639,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,6 +647,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:I11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Chicago</t>
-  </si>
-  <si>
-    <t>ProjectUpdated</t>
   </si>
   <si>
     <t>SELECT [LevelHierarchy] as 'Level Hierarchy'
@@ -91,6 +88,25 @@
   </si>
   <si>
     <t>Modified</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>Travel Management</t>
+  </si>
+  <si>
+    <t>Select DisplayName
+  From [Product_OCM].[dbo].[AGT_Teams]
+  where TeamName='travel';</t>
+  </si>
+  <si>
+    <t>Select DisplayName
+  From [Product_OCM].[dbo].[AGT_Teams]
+  where TeamName='Travel Management';</t>
   </si>
 </sst>
 </file>
@@ -133,13 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +443,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -518,10 +537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +552,7 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -543,27 +562,33 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -573,10 +598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,9 +609,10 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -596,24 +622,30 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -628,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,11 +676,19 @@
     </row>
     <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="486720" yWindow="481410" windowWidth="13710" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I11"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -58,19 +58,7 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>Chicago</t>
   </si>
   <si>
     <t>SELECT [LevelHierarchy] as 'Level Hierarchy'
@@ -90,9 +78,6 @@
     <t>Modified</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>travel</t>
   </si>
   <si>
@@ -107,6 +92,30 @@
     <t>Select DisplayName
   From [Product_OCM].[dbo].[AGT_Teams]
   where TeamName='Travel Management';</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Test Team</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>DeskManagerTest</t>
   </si>
 </sst>
 </file>
@@ -442,13 +451,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
@@ -476,35 +486,32 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,21 +519,30 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +556,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +584,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -582,13 +598,13 @@
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +644,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -642,10 +658,10 @@
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -660,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -671,22 +687,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="486720" yWindow="481410" windowWidth="13710" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Updated Team Name</t>
   </si>
   <si>
-    <t>TeamName modified</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -59,6 +56,46 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Select DisplayName
+  From [Product_OCM].[dbo].[AGT_Teams]
+  where TeamName='travel';</t>
+  </si>
+  <si>
+    <t>Select DisplayName
+  From [Product_OCM].[dbo].[AGT_Teams]
+  where TeamName='Travel Management';</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Test Team</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>DeskManagerTest</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Test Team Updated</t>
   </si>
   <si>
     <t>SELECT [LevelHierarchy] as 'Level Hierarchy'
@@ -66,56 +103,7 @@
       ,[DisplayName] as 'Display Hierarchy'
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[AGT_Teams] order by [TeamID];</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Australiaupdated</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>Travel Management</t>
-  </si>
-  <si>
-    <t>Select DisplayName
-  From [Product_OCM].[dbo].[AGT_Teams]
-  where TeamName='travel';</t>
-  </si>
-  <si>
-    <t>Select DisplayName
-  From [Product_OCM].[dbo].[AGT_Teams]
-  where TeamName='Travel Management';</t>
-  </si>
-  <si>
-    <t>NewZealand</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>IT Department</t>
-  </si>
-  <si>
-    <t>Test Team</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>DeskManagerTest</t>
+  FROM.[AGT_Teams] order by [TeamID];</t>
   </si>
 </sst>
 </file>
@@ -452,12 +440,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -466,16 +454,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -483,66 +471,69 @@
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +547,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,26 +578,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -617,13 +595,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
@@ -638,35 +616,19 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,22 +649,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:F20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -104,6 +104,21 @@
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
   FROM.[AGT_Teams] order by [TeamID];</t>
+  </si>
+  <si>
+    <t>NewZealand&gt;Oceania&gt;IT Department&gt;Test Team Updated</t>
+  </si>
+  <si>
+    <t>DisplayHierarchy</t>
+  </si>
+  <si>
+    <t>Display Hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department&gt;Test Team </t>
+  </si>
+  <si>
+    <t>Updated Display Hierarchy</t>
   </si>
 </sst>
 </file>
@@ -429,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +465,10 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -468,8 +484,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -485,8 +504,11 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -494,7 +516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -505,7 +527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -519,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -544,22 +566,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -572,8 +595,14 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -583,8 +612,20 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -592,21 +633,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -616,8 +658,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -627,8 +675,17 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F20"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14840" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -119,6 +118,18 @@
   </si>
   <si>
     <t>Updated Display Hierarchy</t>
+  </si>
+  <si>
+    <t>Houggang</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>Bang</t>
   </si>
 </sst>
 </file>
@@ -452,23 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -488,7 +499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -508,7 +519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -516,7 +527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -527,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -541,7 +552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -556,6 +567,26 @@
       </c>
       <c r="E6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -566,23 +597,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -622,10 +653,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -633,22 +660,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -665,7 +692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -682,10 +709,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -693,40 +716,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="1" max="1" width="68.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14840" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="5730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,21 +466,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -519,7 +520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -527,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -538,7 +539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -552,7 +553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -569,22 +570,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -599,21 +600,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -666,16 +667,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -692,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -722,27 +723,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.1796875" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="5730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
+  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +639,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -664,7 +665,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J9"/>
+  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -465,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,26 +572,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -598,6 +579,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -660,7 +703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -716,7 +759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="Edit" sheetId="2" r:id="rId3"/>
     <sheet name="Delete" sheetId="3" r:id="rId4"/>
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
+    <sheet name="Create1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J24"/>
+  <oleSize ref="A1:K24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="209">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -132,6 +133,534 @@
   </si>
   <si>
     <t>Bang</t>
+  </si>
+  <si>
+    <t>Country1</t>
+  </si>
+  <si>
+    <t>Division1</t>
+  </si>
+  <si>
+    <t>department1</t>
+  </si>
+  <si>
+    <t>Team200</t>
+  </si>
+  <si>
+    <t>Team201</t>
+  </si>
+  <si>
+    <t>Team202</t>
+  </si>
+  <si>
+    <t>Team203</t>
+  </si>
+  <si>
+    <t>Team204</t>
+  </si>
+  <si>
+    <t>Team205</t>
+  </si>
+  <si>
+    <t>Team206</t>
+  </si>
+  <si>
+    <t>Team207</t>
+  </si>
+  <si>
+    <t>Team208</t>
+  </si>
+  <si>
+    <t>Team209</t>
+  </si>
+  <si>
+    <t>Team210</t>
+  </si>
+  <si>
+    <t>Team211</t>
+  </si>
+  <si>
+    <t>Team212</t>
+  </si>
+  <si>
+    <t>Team213</t>
+  </si>
+  <si>
+    <t>Team214</t>
+  </si>
+  <si>
+    <t>Team215</t>
+  </si>
+  <si>
+    <t>Team216</t>
+  </si>
+  <si>
+    <t>Team217</t>
+  </si>
+  <si>
+    <t>Team218</t>
+  </si>
+  <si>
+    <t>Team219</t>
+  </si>
+  <si>
+    <t>Team220</t>
+  </si>
+  <si>
+    <t>Team221</t>
+  </si>
+  <si>
+    <t>Team222</t>
+  </si>
+  <si>
+    <t>Team223</t>
+  </si>
+  <si>
+    <t>Team224</t>
+  </si>
+  <si>
+    <t>Team225</t>
+  </si>
+  <si>
+    <t>Team226</t>
+  </si>
+  <si>
+    <t>Team227</t>
+  </si>
+  <si>
+    <t>Team228</t>
+  </si>
+  <si>
+    <t>Team229</t>
+  </si>
+  <si>
+    <t>Team230</t>
+  </si>
+  <si>
+    <t>Team231</t>
+  </si>
+  <si>
+    <t>Team232</t>
+  </si>
+  <si>
+    <t>Team233</t>
+  </si>
+  <si>
+    <t>Team234</t>
+  </si>
+  <si>
+    <t>Team235</t>
+  </si>
+  <si>
+    <t>Team236</t>
+  </si>
+  <si>
+    <t>Team237</t>
+  </si>
+  <si>
+    <t>Team238</t>
+  </si>
+  <si>
+    <t>Team239</t>
+  </si>
+  <si>
+    <t>Team240</t>
+  </si>
+  <si>
+    <t>Team241</t>
+  </si>
+  <si>
+    <t>Team242</t>
+  </si>
+  <si>
+    <t>Team243</t>
+  </si>
+  <si>
+    <t>Team244</t>
+  </si>
+  <si>
+    <t>Team245</t>
+  </si>
+  <si>
+    <t>Team246</t>
+  </si>
+  <si>
+    <t>Team247</t>
+  </si>
+  <si>
+    <t>Team248</t>
+  </si>
+  <si>
+    <t>Team249</t>
+  </si>
+  <si>
+    <t>Team250</t>
+  </si>
+  <si>
+    <t>Team251</t>
+  </si>
+  <si>
+    <t>Team252</t>
+  </si>
+  <si>
+    <t>Team253</t>
+  </si>
+  <si>
+    <t>Team254</t>
+  </si>
+  <si>
+    <t>Team255</t>
+  </si>
+  <si>
+    <t>Team256</t>
+  </si>
+  <si>
+    <t>Team257</t>
+  </si>
+  <si>
+    <t>Team258</t>
+  </si>
+  <si>
+    <t>Team259</t>
+  </si>
+  <si>
+    <t>Team260</t>
+  </si>
+  <si>
+    <t>Team261</t>
+  </si>
+  <si>
+    <t>Team262</t>
+  </si>
+  <si>
+    <t>Team263</t>
+  </si>
+  <si>
+    <t>Team264</t>
+  </si>
+  <si>
+    <t>Team265</t>
+  </si>
+  <si>
+    <t>Team266</t>
+  </si>
+  <si>
+    <t>Team267</t>
+  </si>
+  <si>
+    <t>Team268</t>
+  </si>
+  <si>
+    <t>Team269</t>
+  </si>
+  <si>
+    <t>Team270</t>
+  </si>
+  <si>
+    <t>Team271</t>
+  </si>
+  <si>
+    <t>Team272</t>
+  </si>
+  <si>
+    <t>Team273</t>
+  </si>
+  <si>
+    <t>Team274</t>
+  </si>
+  <si>
+    <t>Team275</t>
+  </si>
+  <si>
+    <t>Team276</t>
+  </si>
+  <si>
+    <t>Team277</t>
+  </si>
+  <si>
+    <t>Team278</t>
+  </si>
+  <si>
+    <t>Team279</t>
+  </si>
+  <si>
+    <t>Team280</t>
+  </si>
+  <si>
+    <t>Team281</t>
+  </si>
+  <si>
+    <t>Team282</t>
+  </si>
+  <si>
+    <t>Team283</t>
+  </si>
+  <si>
+    <t>Team284</t>
+  </si>
+  <si>
+    <t>Team285</t>
+  </si>
+  <si>
+    <t>Team286</t>
+  </si>
+  <si>
+    <t>Team287</t>
+  </si>
+  <si>
+    <t>Team288</t>
+  </si>
+  <si>
+    <t>Team289</t>
+  </si>
+  <si>
+    <t>Team290</t>
+  </si>
+  <si>
+    <t>Team291</t>
+  </si>
+  <si>
+    <t>Team292</t>
+  </si>
+  <si>
+    <t>Team293</t>
+  </si>
+  <si>
+    <t>Team294</t>
+  </si>
+  <si>
+    <t>Team295</t>
+  </si>
+  <si>
+    <t>Team296</t>
+  </si>
+  <si>
+    <t>Team297</t>
+  </si>
+  <si>
+    <t>Team298</t>
+  </si>
+  <si>
+    <t>Team299</t>
+  </si>
+  <si>
+    <t>Team300</t>
+  </si>
+  <si>
+    <t>Team301</t>
+  </si>
+  <si>
+    <t>Team302</t>
+  </si>
+  <si>
+    <t>Team303</t>
+  </si>
+  <si>
+    <t>Team304</t>
+  </si>
+  <si>
+    <t>Team305</t>
+  </si>
+  <si>
+    <t>Team306</t>
+  </si>
+  <si>
+    <t>Team307</t>
+  </si>
+  <si>
+    <t>Team308</t>
+  </si>
+  <si>
+    <t>Team309</t>
+  </si>
+  <si>
+    <t>Team310</t>
+  </si>
+  <si>
+    <t>Team311</t>
+  </si>
+  <si>
+    <t>Team312</t>
+  </si>
+  <si>
+    <t>Team313</t>
+  </si>
+  <si>
+    <t>Team314</t>
+  </si>
+  <si>
+    <t>Team315</t>
+  </si>
+  <si>
+    <t>Team316</t>
+  </si>
+  <si>
+    <t>Team317</t>
+  </si>
+  <si>
+    <t>Team318</t>
+  </si>
+  <si>
+    <t>Team319</t>
+  </si>
+  <si>
+    <t>Team320</t>
+  </si>
+  <si>
+    <t>Team321</t>
+  </si>
+  <si>
+    <t>Team322</t>
+  </si>
+  <si>
+    <t>Team323</t>
+  </si>
+  <si>
+    <t>Team324</t>
+  </si>
+  <si>
+    <t>Team325</t>
+  </si>
+  <si>
+    <t>Team326</t>
+  </si>
+  <si>
+    <t>Team327</t>
+  </si>
+  <si>
+    <t>Team328</t>
+  </si>
+  <si>
+    <t>Team329</t>
+  </si>
+  <si>
+    <t>Team330</t>
+  </si>
+  <si>
+    <t>Team331</t>
+  </si>
+  <si>
+    <t>Team332</t>
+  </si>
+  <si>
+    <t>Team333</t>
+  </si>
+  <si>
+    <t>Team334</t>
+  </si>
+  <si>
+    <t>Team335</t>
+  </si>
+  <si>
+    <t>Team336</t>
+  </si>
+  <si>
+    <t>Team337</t>
+  </si>
+  <si>
+    <t>Team338</t>
+  </si>
+  <si>
+    <t>Team339</t>
+  </si>
+  <si>
+    <t>Team340</t>
+  </si>
+  <si>
+    <t>Team341</t>
+  </si>
+  <si>
+    <t>Team342</t>
+  </si>
+  <si>
+    <t>Team343</t>
+  </si>
+  <si>
+    <t>Team344</t>
+  </si>
+  <si>
+    <t>Team345</t>
+  </si>
+  <si>
+    <t>Team346</t>
+  </si>
+  <si>
+    <t>Team347</t>
+  </si>
+  <si>
+    <t>Team348</t>
+  </si>
+  <si>
+    <t>Team349</t>
+  </si>
+  <si>
+    <t>Team350</t>
+  </si>
+  <si>
+    <t>Team351</t>
+  </si>
+  <si>
+    <t>Team352</t>
+  </si>
+  <si>
+    <t>Team353</t>
+  </si>
+  <si>
+    <t>Team354</t>
+  </si>
+  <si>
+    <t>Team355</t>
+  </si>
+  <si>
+    <t>Team356</t>
+  </si>
+  <si>
+    <t>Team357</t>
+  </si>
+  <si>
+    <t>Team358</t>
+  </si>
+  <si>
+    <t>Team359</t>
+  </si>
+  <si>
+    <t>Team360</t>
+  </si>
+  <si>
+    <t>Team361</t>
+  </si>
+  <si>
+    <t>Team362</t>
+  </si>
+  <si>
+    <t>Team363</t>
+  </si>
+  <si>
+    <t>Team364</t>
+  </si>
+  <si>
+    <t>Team365</t>
+  </si>
+  <si>
+    <t>Team366</t>
+  </si>
+  <si>
+    <t>Team367</t>
+  </si>
+  <si>
+    <t>Team368</t>
+  </si>
+  <si>
+    <t>Team369</t>
+  </si>
+  <si>
+    <t>Team370</t>
+  </si>
+  <si>
+    <t>Team371</t>
+  </si>
+  <si>
+    <t>Team372</t>
   </si>
 </sst>
 </file>
@@ -708,7 +1237,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,4 +1324,3026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E312"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Create1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K24"/>
+  <oleSize ref="A1:I11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -987,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BBCCD8BB-FDB7-4FB3-B360-F71CC1E4D4AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="4"/>
+    <workbookView xWindow="2340" yWindow="840" windowWidth="15630" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="Create1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I11"/>
+  <oleSize ref="A1:J13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="207">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -123,12 +124,6 @@
     <t>Updated Display Hierarchy</t>
   </si>
   <si>
-    <t>Houggang</t>
-  </si>
-  <si>
-    <t>ang</t>
-  </si>
-  <si>
     <t>ore</t>
   </si>
   <si>
@@ -666,7 +661,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,14 +982,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1108,11 +1103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1141,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,12 +1151,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1233,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1289,10 +1284,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1327,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1365,16 +1360,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,16 +1377,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,16 +1394,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,16 +1411,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,16 +1428,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,16 +1445,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,16 +1462,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,16 +1479,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,16 +1496,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,16 +1513,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,16 +1530,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,16 +1547,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,16 +1564,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,16 +1581,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,16 +1598,16 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,16 +1615,16 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,16 +1632,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,16 +1649,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,16 +1666,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,16 +1683,16 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,16 +1700,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,16 +1717,16 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,16 +1734,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,16 +1751,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,16 +1768,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,16 +1785,16 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,16 +1802,16 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,16 +1819,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,16 +1836,16 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,16 +1853,16 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,16 +1870,16 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,16 +1887,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,16 +1904,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,16 +1921,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,16 +1938,16 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,16 +1955,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1977,16 +1972,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,16 +1989,16 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,16 +2006,16 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,16 +2023,16 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,16 +2040,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,16 +2057,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,16 +2074,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2096,16 +2091,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,16 +2108,16 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,16 +2125,16 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,16 +2142,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,16 +2159,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2181,16 +2176,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,16 +2193,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,16 +2210,16 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2249,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,16 +2261,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,16 +2278,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,16 +2295,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2317,16 +2312,16 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2334,16 +2329,16 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2351,16 +2346,16 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,16 +2363,16 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,16 +2380,16 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2402,16 +2397,16 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,16 +2414,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,16 +2431,16 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,16 +2448,16 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,16 +2465,16 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,16 +2482,16 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,16 +2499,16 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,16 +2516,16 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,16 +2533,16 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,16 +2550,16 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,16 +2567,16 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,16 +2584,16 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,16 +2601,16 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,16 +2618,16 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,16 +2635,16 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2657,16 +2652,16 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,16 +2669,16 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,16 +2686,16 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,16 +2703,16 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,16 +2720,16 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2742,16 +2737,16 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2759,16 +2754,16 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2776,16 +2771,16 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,16 +2788,16 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,16 +2805,16 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,16 +2822,16 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,16 +2839,16 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,16 +2856,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,16 +2873,16 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,16 +2890,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,16 +2907,16 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2929,16 +2924,16 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,16 +2941,16 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,16 +2958,16 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,16 +2975,16 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2997,16 +2992,16 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,16 +3009,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,16 +3026,16 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,16 +3043,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3065,16 +3060,16 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,7 +3077,7 @@
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,7 +3093,7 @@
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3106,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3114,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,7 +3117,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,7 +3133,7 @@
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3154,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3178,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,7 +3181,7 @@
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,7 +3197,7 @@
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,7 +3213,7 @@
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3226,7 +3221,7 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3234,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3242,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3269,7 @@
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3290,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3306,7 +3301,7 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,7 +3317,7 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3362,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,7 +3365,7 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3386,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3394,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,7 +3405,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3426,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,7 +3429,7 @@
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3442,7 +3437,7 @@
         <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3466,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,7 +3469,7 @@
         <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3498,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,7 +3501,7 @@
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3522,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,7 +3525,7 @@
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,7 +3541,7 @@
         <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3562,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,7 +3581,7 @@
         <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,7 +3589,7 @@
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,7 +3597,7 @@
         <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3642,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F39CF-2FA0-4E90-9E46-C132EB0B8AA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F107D0B9-F6EB-4BEC-836E-BBA9B2EFF8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F107D0B9-F6EB-4BEC-836E-BBA9B2EFF8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3D4FA6-3E67-41AB-88A8-383AD3BC91E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Edit" sheetId="2" r:id="rId3"/>
     <sheet name="Delete" sheetId="3" r:id="rId4"/>
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
-    <sheet name="Create1" sheetId="6" r:id="rId6"/>
+    <sheet name="MySQL" sheetId="7" r:id="rId6"/>
+    <sheet name="Create1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="208">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -655,6 +656,14 @@
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
   FROM.[AGT_Teams] order by Name;</t>
+  </si>
+  <si>
+    <t>SELECT LevelHierarchy AS 'Level Hierarchy'
+   ,TeamName AS Name
+      ,DisplayName AS 'Display Hierarchy'
+   ,LAST_CHANGED_BY AS 'Last Changed By'
+      ,LAST_CHANGED_ON AS 'Last Changed On'
+  FROM Product_OCM.AGT_Teams  order by Name;</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1286,9 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1321,6 +1328,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ABC219-506F-49A2-AE30-39EBDB2AA7BD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E312"/>
   <sheetViews>

--- a/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTeamManagementData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3D4FA6-3E67-41AB-88A8-383AD3BC91E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A2641-10BF-480A-9621-A189B7EBF749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
